--- a/data/report_df/cn_csi300_open_CSRankNorm_mse_IdentityReweighter.xlsx
+++ b/data/report_df/cn_csi300_open_CSRankNorm_mse_IdentityReweighter.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="excess_return_without_cost" sheetId="1" r:id="rId1"/>
+    <sheet name="excess_return_with_cost" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>mean</t>
   </si>
@@ -417,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0001894286886350167</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -426,10 +427,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>8.532825848155096E-06</v>
+        <v>0.00082</v>
       </c>
       <c r="D3">
-        <v>-0.0001754307028372929</v>
+        <v>0.0009700000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -438,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.0002062949583963422</v>
+        <v>0.00044</v>
       </c>
       <c r="D4">
-        <v>0.0001625246215804498</v>
+        <v>0.0004</v>
       </c>
       <c r="E4">
-        <v>-0.0001123329493886763</v>
+        <v>0.00045</v>
       </c>
       <c r="F4">
-        <v>0.0002587853194734507</v>
+        <v>0.00121</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -456,19 +457,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.0003652849157735837</v>
+        <v>0.00048</v>
       </c>
       <c r="D5">
-        <v>-6.123928447187355E-05</v>
+        <v>1E-05</v>
       </c>
       <c r="E5">
-        <v>0.0002839860271919773</v>
+        <v>0.00059</v>
       </c>
       <c r="F5">
-        <v>0.0001725478521797448</v>
+        <v>0.0009</v>
       </c>
       <c r="G5">
-        <v>-2.483061538126269E-05</v>
+        <v>0.00073</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -477,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.0005070292165183684</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="D6">
-        <v>4.540236289607063E-06</v>
+        <v>6E-05</v>
       </c>
       <c r="E6">
-        <v>0.0005150852363099056</v>
+        <v>0.00076</v>
       </c>
       <c r="F6">
-        <v>0.0002042056234751822</v>
+        <v>0.00059</v>
       </c>
       <c r="G6">
-        <v>0.0001710528502001207</v>
+        <v>0.00062</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -498,19 +499,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.0005471270867208081</v>
+        <v>0.00057</v>
       </c>
       <c r="D7">
-        <v>0.0001445642258739808</v>
+        <v>0.00019</v>
       </c>
       <c r="E7">
-        <v>0.0006776970047285734</v>
+        <v>0.00079</v>
       </c>
       <c r="F7">
-        <v>0.0002945014296826141</v>
+        <v>0.00061</v>
       </c>
       <c r="G7">
-        <v>0.0002766574213554082</v>
+        <v>0.00063</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -521,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.0254948606033969</v>
+        <v>0.02544</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -530,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01744053716284658</v>
+        <v>0.01743</v>
       </c>
       <c r="D9">
-        <v>0.01580757212065367</v>
+        <v>0.01578</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -542,16 +543,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01225082331699079</v>
+        <v>0.01225</v>
       </c>
       <c r="D10">
-        <v>0.01067730961616333</v>
+        <v>0.01068</v>
       </c>
       <c r="E10">
-        <v>0.01068119652489539</v>
+        <v>0.01067</v>
       </c>
       <c r="F10">
-        <v>0.01103673549753707</v>
+        <v>0.01103</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -560,19 +561,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.00992323732954231</v>
+        <v>0.00993</v>
       </c>
       <c r="D11">
-        <v>0.009526176548727335</v>
+        <v>0.00953</v>
       </c>
       <c r="E11">
-        <v>0.009931095416531522</v>
+        <v>0.00993</v>
       </c>
       <c r="F11">
-        <v>0.009983747544128606</v>
+        <v>0.009979999999999999</v>
       </c>
       <c r="G11">
-        <v>0.009346035787917397</v>
+        <v>0.009339999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -581,19 +582,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.009169232928487422</v>
+        <v>0.009169999999999999</v>
       </c>
       <c r="D12">
-        <v>0.009386041652926978</v>
+        <v>0.009390000000000001</v>
       </c>
       <c r="E12">
-        <v>0.009513294726743568</v>
+        <v>0.009509999999999999</v>
       </c>
       <c r="F12">
-        <v>0.009584309218608526</v>
+        <v>0.00959</v>
       </c>
       <c r="G12">
-        <v>0.009200052553295476</v>
+        <v>0.009209999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -602,19 +603,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.01283043180089833</v>
+        <v>0.01283</v>
       </c>
       <c r="D13">
-        <v>0.0111726795563972</v>
+        <v>0.01118</v>
       </c>
       <c r="E13">
-        <v>0.01212560995276307</v>
+        <v>0.01213</v>
       </c>
       <c r="F13">
-        <v>0.008813855459453469</v>
+        <v>0.00882</v>
       </c>
       <c r="G13">
-        <v>0.008580536478858883</v>
+        <v>0.00859</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -625,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.04508402789513397</v>
+        <v>0.45228</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -634,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.002030812551860913</v>
+        <v>0.1954</v>
       </c>
       <c r="D15">
-        <v>-0.04175250727527571</v>
+        <v>0.23001</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -646,16 +647,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.04909820009832944</v>
+        <v>0.10442</v>
       </c>
       <c r="D16">
-        <v>0.03868085993614705</v>
+        <v>0.09522</v>
       </c>
       <c r="E16">
-        <v>-0.02673524195450495</v>
+        <v>0.10787</v>
       </c>
       <c r="F16">
-        <v>0.06159090603468127</v>
+        <v>0.28753</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -664,19 +665,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.08693780995411292</v>
+        <v>0.11513</v>
       </c>
       <c r="D17">
-        <v>-0.0145749497043059</v>
+        <v>0.00315</v>
       </c>
       <c r="E17">
-        <v>0.06758867447169059</v>
+        <v>0.14102</v>
       </c>
       <c r="F17">
-        <v>0.04106638881877927</v>
+        <v>0.21489</v>
       </c>
       <c r="G17">
-        <v>-0.00590968646074052</v>
+        <v>0.17372</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -685,19 +686,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.1206729535313717</v>
+        <v>0.1426</v>
       </c>
       <c r="D18">
-        <v>0.001080576236926481</v>
+        <v>0.01451</v>
       </c>
       <c r="E18">
-        <v>0.1225902862417576</v>
+        <v>0.18151</v>
       </c>
       <c r="F18">
-        <v>0.04860093838709336</v>
+        <v>0.13996</v>
       </c>
       <c r="G18">
-        <v>0.04071057834762874</v>
+        <v>0.14797</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -706,19 +707,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.1302162466395523</v>
+        <v>0.13584</v>
       </c>
       <c r="D19">
-        <v>0.03440628575800744</v>
+        <v>0.04547</v>
       </c>
       <c r="E19">
-        <v>0.1612918871254005</v>
+        <v>0.18709</v>
       </c>
       <c r="F19">
-        <v>0.07009134026446215</v>
+        <v>0.14596</v>
       </c>
       <c r="G19">
-        <v>0.06584446628258714</v>
+        <v>0.14955</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -729,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.1146255914435624</v>
+        <v>1.15254</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -738,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.007547819460268629</v>
+        <v>0.72656</v>
       </c>
       <c r="D21">
-        <v>-0.1712099143176542</v>
+        <v>0.94482</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -750,16 +751,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.2597836512694383</v>
+        <v>0.55259</v>
       </c>
       <c r="D22">
-        <v>0.234825797341819</v>
+        <v>0.57817</v>
       </c>
       <c r="E22">
-        <v>-0.1622466485340496</v>
+        <v>0.65506</v>
       </c>
       <c r="F22">
-        <v>0.3617324582757382</v>
+        <v>1.69009</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -768,19 +769,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.5678934228647095</v>
+        <v>0.75162</v>
       </c>
       <c r="D23">
-        <v>-0.09917448643316151</v>
+        <v>0.02143</v>
       </c>
       <c r="E23">
-        <v>0.4411520444116951</v>
+        <v>0.92073</v>
       </c>
       <c r="F23">
-        <v>0.2666271961256515</v>
+        <v>1.39571</v>
       </c>
       <c r="G23">
-        <v>-0.04098722555535408</v>
+        <v>1.20522</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -789,19 +790,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.8530774430220075</v>
+        <v>1.00762</v>
       </c>
       <c r="D24">
-        <v>0.007462501939135387</v>
+        <v>0.1001</v>
       </c>
       <c r="E24">
-        <v>0.8352887437603177</v>
+        <v>1.23721</v>
       </c>
       <c r="F24">
-        <v>0.3286967115947972</v>
+        <v>0.94619</v>
       </c>
       <c r="G24">
-        <v>0.2868325840534744</v>
+        <v>1.04144</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -810,19 +811,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.6578629406130748</v>
+        <v>0.68633</v>
       </c>
       <c r="D25">
-        <v>0.1996144472716975</v>
+        <v>0.26373</v>
       </c>
       <c r="E25">
-        <v>0.8622246816508899</v>
+        <v>1.00006</v>
       </c>
       <c r="F25">
-        <v>0.5154777946744699</v>
+        <v>1.07237</v>
       </c>
       <c r="G25">
-        <v>0.4974121178184651</v>
+        <v>1.12854</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -833,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.8350945182066583</v>
+        <v>-0.48156</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -842,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.6047946912290841</v>
+        <v>-0.37994</v>
       </c>
       <c r="D27">
-        <v>-0.720135400406407</v>
+        <v>-0.32191</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -854,16 +855,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.3486221955843224</v>
+        <v>-0.28549</v>
       </c>
       <c r="D28">
-        <v>-0.36999110230635</v>
+        <v>-0.31199</v>
       </c>
       <c r="E28">
-        <v>-0.4376846893287513</v>
+        <v>-0.27293</v>
       </c>
       <c r="F28">
-        <v>-0.3725061208306569</v>
+        <v>-0.20378</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -872,19 +873,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.2502902902541725</v>
+        <v>-0.25029</v>
       </c>
       <c r="D29">
-        <v>-0.4703129710223951</v>
+        <v>-0.47031</v>
       </c>
       <c r="E29">
-        <v>-0.3367360202167187</v>
+        <v>-0.26495</v>
       </c>
       <c r="F29">
-        <v>-0.2744411601964389</v>
+        <v>-0.20702</v>
       </c>
       <c r="G29">
-        <v>-0.3444351241259904</v>
+        <v>-0.20313</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -893,19 +894,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.1606738808964543</v>
+        <v>-0.16067</v>
       </c>
       <c r="D30">
-        <v>-0.5037098166504586</v>
+        <v>-0.50371</v>
       </c>
       <c r="E30">
-        <v>-0.2188741794667745</v>
+        <v>-0.15953</v>
       </c>
       <c r="F30">
-        <v>-0.1959177192271001</v>
+        <v>-0.14155</v>
       </c>
       <c r="G30">
-        <v>-0.2086089275312362</v>
+        <v>-0.15878</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -914,19 +915,576 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.3110187898401642</v>
+        <v>-0.31102</v>
       </c>
       <c r="D31">
-        <v>-0.4309171991998501</v>
+        <v>-0.43092</v>
       </c>
       <c r="E31">
-        <v>-0.222861230146004</v>
+        <v>-0.22286</v>
       </c>
       <c r="F31">
-        <v>-0.1721001165095822</v>
+        <v>-0.14095</v>
       </c>
       <c r="G31">
-        <v>-0.1722461065100016</v>
+        <v>-0.13139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.00019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1E-05</v>
+      </c>
+      <c r="D3">
+        <v>-0.00018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0.00021</v>
+      </c>
+      <c r="D4">
+        <v>0.00016</v>
+      </c>
+      <c r="E4">
+        <v>-0.00011</v>
+      </c>
+      <c r="F4">
+        <v>0.00026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0.00037</v>
+      </c>
+      <c r="D5">
+        <v>-6E-05</v>
+      </c>
+      <c r="E5">
+        <v>0.00028</v>
+      </c>
+      <c r="F5">
+        <v>0.00017</v>
+      </c>
+      <c r="G5">
+        <v>-2E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0.00051</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.00052</v>
+      </c>
+      <c r="F6">
+        <v>0.0002</v>
+      </c>
+      <c r="G6">
+        <v>0.00017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0.00055</v>
+      </c>
+      <c r="D7">
+        <v>0.00014</v>
+      </c>
+      <c r="E7">
+        <v>0.00068</v>
+      </c>
+      <c r="F7">
+        <v>0.00029</v>
+      </c>
+      <c r="G7">
+        <v>0.00028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.02549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.01744</v>
+      </c>
+      <c r="D9">
+        <v>0.01581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0.01225</v>
+      </c>
+      <c r="D10">
+        <v>0.01068</v>
+      </c>
+      <c r="E10">
+        <v>0.01068</v>
+      </c>
+      <c r="F10">
+        <v>0.01104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>0.00992</v>
+      </c>
+      <c r="D11">
+        <v>0.00953</v>
+      </c>
+      <c r="E11">
+        <v>0.00993</v>
+      </c>
+      <c r="F11">
+        <v>0.009979999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.009350000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0.009169999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.009390000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.009509999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.00958</v>
+      </c>
+      <c r="G12">
+        <v>0.0092</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0.01283</v>
+      </c>
+      <c r="D13">
+        <v>0.01117</v>
+      </c>
+      <c r="E13">
+        <v>0.01213</v>
+      </c>
+      <c r="F13">
+        <v>0.00881</v>
+      </c>
+      <c r="G13">
+        <v>0.008580000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.04508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.00203</v>
+      </c>
+      <c r="D15">
+        <v>-0.04175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0.0491</v>
+      </c>
+      <c r="D16">
+        <v>0.03868</v>
+      </c>
+      <c r="E16">
+        <v>-0.02674</v>
+      </c>
+      <c r="F16">
+        <v>0.06159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>0.08694</v>
+      </c>
+      <c r="D17">
+        <v>-0.01457</v>
+      </c>
+      <c r="E17">
+        <v>0.06759</v>
+      </c>
+      <c r="F17">
+        <v>0.04107</v>
+      </c>
+      <c r="G17">
+        <v>-0.00591</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>0.12067</v>
+      </c>
+      <c r="D18">
+        <v>0.00108</v>
+      </c>
+      <c r="E18">
+        <v>0.12259</v>
+      </c>
+      <c r="F18">
+        <v>0.0486</v>
+      </c>
+      <c r="G18">
+        <v>0.04071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>0.13022</v>
+      </c>
+      <c r="D19">
+        <v>0.03441</v>
+      </c>
+      <c r="E19">
+        <v>0.16129</v>
+      </c>
+      <c r="F19">
+        <v>0.07009</v>
+      </c>
+      <c r="G19">
+        <v>0.06584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.11463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0.00755</v>
+      </c>
+      <c r="D21">
+        <v>-0.17121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>0.25978</v>
+      </c>
+      <c r="D22">
+        <v>0.23483</v>
+      </c>
+      <c r="E22">
+        <v>-0.16225</v>
+      </c>
+      <c r="F22">
+        <v>0.36173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>0.56789</v>
+      </c>
+      <c r="D23">
+        <v>-0.09916999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.44115</v>
+      </c>
+      <c r="F23">
+        <v>0.26663</v>
+      </c>
+      <c r="G23">
+        <v>-0.04099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0.8530799999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.00746</v>
+      </c>
+      <c r="E24">
+        <v>0.83529</v>
+      </c>
+      <c r="F24">
+        <v>0.3287</v>
+      </c>
+      <c r="G24">
+        <v>0.28683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>0.65786</v>
+      </c>
+      <c r="D25">
+        <v>0.19961</v>
+      </c>
+      <c r="E25">
+        <v>0.86222</v>
+      </c>
+      <c r="F25">
+        <v>0.51548</v>
+      </c>
+      <c r="G25">
+        <v>0.49741</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>-0.83509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>-0.60479</v>
+      </c>
+      <c r="D27">
+        <v>-0.72014</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>-0.34862</v>
+      </c>
+      <c r="D28">
+        <v>-0.36999</v>
+      </c>
+      <c r="E28">
+        <v>-0.43768</v>
+      </c>
+      <c r="F28">
+        <v>-0.37251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>-0.25029</v>
+      </c>
+      <c r="D29">
+        <v>-0.47031</v>
+      </c>
+      <c r="E29">
+        <v>-0.33674</v>
+      </c>
+      <c r="F29">
+        <v>-0.27444</v>
+      </c>
+      <c r="G29">
+        <v>-0.34444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>-0.16067</v>
+      </c>
+      <c r="D30">
+        <v>-0.50371</v>
+      </c>
+      <c r="E30">
+        <v>-0.21887</v>
+      </c>
+      <c r="F30">
+        <v>-0.19592</v>
+      </c>
+      <c r="G30">
+        <v>-0.20861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>-0.31102</v>
+      </c>
+      <c r="D31">
+        <v>-0.43092</v>
+      </c>
+      <c r="E31">
+        <v>-0.22286</v>
+      </c>
+      <c r="F31">
+        <v>-0.1721</v>
+      </c>
+      <c r="G31">
+        <v>-0.17225</v>
       </c>
     </row>
   </sheetData>

--- a/data/report_df/cn_csi300_open_CSRankNorm_mse_IdentityReweighter.xlsx
+++ b/data/report_df/cn_csi300_open_CSRankNorm_mse_IdentityReweighter.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0019</v>
+        <v>0.00189</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -427,10 +427,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00082</v>
+        <v>0.00114</v>
       </c>
       <c r="D3">
-        <v>0.0009700000000000001</v>
+        <v>0.00131</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.00044</v>
+        <v>0.00071</v>
       </c>
       <c r="D4">
-        <v>0.0004</v>
+        <v>0.00095</v>
       </c>
       <c r="E4">
-        <v>0.00045</v>
+        <v>0.00123</v>
       </c>
       <c r="F4">
-        <v>0.00121</v>
+        <v>0.00122</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -457,19 +457,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00048</v>
+        <v>0.00055</v>
       </c>
       <c r="D5">
-        <v>1E-05</v>
+        <v>0.00077</v>
       </c>
       <c r="E5">
-        <v>0.00059</v>
+        <v>0.00119</v>
       </c>
       <c r="F5">
-        <v>0.0009</v>
+        <v>0.00117</v>
       </c>
       <c r="G5">
-        <v>0.00073</v>
+        <v>0.00126</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.0005999999999999999</v>
+        <v>0.00068</v>
       </c>
       <c r="D6">
-        <v>6E-05</v>
+        <v>0.00079</v>
       </c>
       <c r="E6">
-        <v>0.00076</v>
+        <v>0.00117</v>
       </c>
       <c r="F6">
-        <v>0.00059</v>
+        <v>0.0013</v>
       </c>
       <c r="G6">
-        <v>0.00062</v>
+        <v>0.00123</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -499,19 +499,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.00057</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="D7">
-        <v>0.00019</v>
+        <v>0.00074</v>
       </c>
       <c r="E7">
-        <v>0.00079</v>
+        <v>0.00094</v>
       </c>
       <c r="F7">
-        <v>0.00061</v>
+        <v>0.0012</v>
       </c>
       <c r="G7">
-        <v>0.00063</v>
+        <v>0.00109</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.02544</v>
+        <v>0.02562</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -531,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01743</v>
+        <v>0.01784</v>
       </c>
       <c r="D9">
-        <v>0.01578</v>
+        <v>0.01737</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -543,16 +543,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01225</v>
+        <v>0.01331</v>
       </c>
       <c r="D10">
-        <v>0.01068</v>
+        <v>0.01198</v>
       </c>
       <c r="E10">
-        <v>0.01067</v>
+        <v>0.01186</v>
       </c>
       <c r="F10">
-        <v>0.01103</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -561,19 +561,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.00993</v>
+        <v>0.01087</v>
       </c>
       <c r="D11">
-        <v>0.00953</v>
+        <v>0.01035</v>
       </c>
       <c r="E11">
-        <v>0.00993</v>
+        <v>0.01074</v>
       </c>
       <c r="F11">
-        <v>0.009979999999999999</v>
+        <v>0.01022</v>
       </c>
       <c r="G11">
-        <v>0.009339999999999999</v>
+        <v>0.01028</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -582,19 +582,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.009169999999999999</v>
+        <v>0.01011</v>
       </c>
       <c r="D12">
-        <v>0.009390000000000001</v>
+        <v>0.00962</v>
       </c>
       <c r="E12">
-        <v>0.009509999999999999</v>
+        <v>0.00991</v>
       </c>
       <c r="F12">
-        <v>0.00959</v>
+        <v>0.009650000000000001</v>
       </c>
       <c r="G12">
-        <v>0.009209999999999999</v>
+        <v>0.009639999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -603,19 +603,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.01283</v>
+        <v>0.00915</v>
       </c>
       <c r="D13">
-        <v>0.01118</v>
+        <v>0.00893</v>
       </c>
       <c r="E13">
-        <v>0.01213</v>
+        <v>0.00882</v>
       </c>
       <c r="F13">
-        <v>0.00882</v>
+        <v>0.009209999999999999</v>
       </c>
       <c r="G13">
-        <v>0.00859</v>
+        <v>0.008840000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.45228</v>
+        <v>0.44966</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -635,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.1954</v>
+        <v>0.27057</v>
       </c>
       <c r="D15">
-        <v>0.23001</v>
+        <v>0.3113</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -647,16 +647,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.10442</v>
+        <v>0.16893</v>
       </c>
       <c r="D16">
-        <v>0.09522</v>
+        <v>0.22646</v>
       </c>
       <c r="E16">
-        <v>0.10787</v>
+        <v>0.29324</v>
       </c>
       <c r="F16">
-        <v>0.28753</v>
+        <v>0.28984</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -665,19 +665,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.11513</v>
+        <v>0.132</v>
       </c>
       <c r="D17">
-        <v>0.00315</v>
+        <v>0.18254</v>
       </c>
       <c r="E17">
-        <v>0.14102</v>
+        <v>0.28251</v>
       </c>
       <c r="F17">
-        <v>0.21489</v>
+        <v>0.27872</v>
       </c>
       <c r="G17">
-        <v>0.17372</v>
+        <v>0.29985</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,19 +686,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.1426</v>
+        <v>0.16112</v>
       </c>
       <c r="D18">
-        <v>0.01451</v>
+        <v>0.18841</v>
       </c>
       <c r="E18">
-        <v>0.18151</v>
+        <v>0.27782</v>
       </c>
       <c r="F18">
-        <v>0.13996</v>
+        <v>0.30834</v>
       </c>
       <c r="G18">
-        <v>0.14797</v>
+        <v>0.29202</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -707,19 +707,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.13584</v>
+        <v>0.14387</v>
       </c>
       <c r="D19">
-        <v>0.04547</v>
+        <v>0.17647</v>
       </c>
       <c r="E19">
-        <v>0.18709</v>
+        <v>0.22428</v>
       </c>
       <c r="F19">
-        <v>0.14596</v>
+        <v>0.28503</v>
       </c>
       <c r="G19">
-        <v>0.14955</v>
+        <v>0.25835</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1.15254</v>
+        <v>1.13779</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -739,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.72656</v>
+        <v>0.9831299999999999</v>
       </c>
       <c r="D21">
-        <v>0.94482</v>
+        <v>1.16183</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -751,16 +751,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.55259</v>
+        <v>0.82258</v>
       </c>
       <c r="D22">
-        <v>0.57817</v>
+        <v>1.22523</v>
       </c>
       <c r="E22">
-        <v>0.65506</v>
+        <v>1.60306</v>
       </c>
       <c r="F22">
-        <v>1.69009</v>
+        <v>1.59254</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -769,19 +769,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.75162</v>
+        <v>0.78717</v>
       </c>
       <c r="D23">
-        <v>0.02143</v>
+        <v>1.14363</v>
       </c>
       <c r="E23">
-        <v>0.92073</v>
+        <v>1.70529</v>
       </c>
       <c r="F23">
-        <v>1.39571</v>
+        <v>1.76716</v>
       </c>
       <c r="G23">
-        <v>1.20522</v>
+        <v>1.88997</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -790,19 +790,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>1.00762</v>
+        <v>1.03252</v>
       </c>
       <c r="D24">
-        <v>0.1001</v>
+        <v>1.26945</v>
       </c>
       <c r="E24">
-        <v>1.23721</v>
+        <v>1.81759</v>
       </c>
       <c r="F24">
-        <v>0.94619</v>
+        <v>2.07139</v>
       </c>
       <c r="G24">
-        <v>1.04144</v>
+        <v>1.96321</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -811,19 +811,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.68633</v>
+        <v>1.0195</v>
       </c>
       <c r="D25">
-        <v>0.26373</v>
+        <v>1.28115</v>
       </c>
       <c r="E25">
-        <v>1.00006</v>
+        <v>1.64852</v>
       </c>
       <c r="F25">
-        <v>1.07237</v>
+        <v>2.00673</v>
       </c>
       <c r="G25">
-        <v>1.12854</v>
+        <v>1.89457</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -843,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.37994</v>
+        <v>-0.39196</v>
       </c>
       <c r="D27">
-        <v>-0.32191</v>
+        <v>-0.33688</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -855,16 +855,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.28549</v>
+        <v>-0.24669</v>
       </c>
       <c r="D28">
-        <v>-0.31199</v>
+        <v>-0.26726</v>
       </c>
       <c r="E28">
-        <v>-0.27293</v>
+        <v>-0.25008</v>
       </c>
       <c r="F28">
-        <v>-0.20378</v>
+        <v>-0.25001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -873,19 +873,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.25029</v>
+        <v>-0.23145</v>
       </c>
       <c r="D29">
-        <v>-0.47031</v>
+        <v>-0.23539</v>
       </c>
       <c r="E29">
-        <v>-0.26495</v>
+        <v>-0.19741</v>
       </c>
       <c r="F29">
-        <v>-0.20702</v>
+        <v>-0.19188</v>
       </c>
       <c r="G29">
-        <v>-0.20313</v>
+        <v>-0.20431</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -894,19 +894,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.16067</v>
+        <v>-0.18555</v>
       </c>
       <c r="D30">
-        <v>-0.50371</v>
+        <v>-0.18237</v>
       </c>
       <c r="E30">
-        <v>-0.15953</v>
+        <v>-0.20207</v>
       </c>
       <c r="F30">
-        <v>-0.14155</v>
+        <v>-0.19104</v>
       </c>
       <c r="G30">
-        <v>-0.15878</v>
+        <v>-0.19304</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -915,19 +915,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.31102</v>
+        <v>-0.15646</v>
       </c>
       <c r="D31">
-        <v>-0.43092</v>
+        <v>-0.18971</v>
       </c>
       <c r="E31">
-        <v>-0.22286</v>
+        <v>-0.17222</v>
       </c>
       <c r="F31">
-        <v>-0.14095</v>
+        <v>-0.20407</v>
       </c>
       <c r="G31">
-        <v>-0.13139</v>
+        <v>-0.18703</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00019</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -984,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1E-05</v>
+        <v>0.00016</v>
       </c>
       <c r="D3">
-        <v>-0.00018</v>
+        <v>-0.00014</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -999,13 +999,13 @@
         <v>0.00021</v>
       </c>
       <c r="D4">
-        <v>0.00016</v>
+        <v>4E-05</v>
       </c>
       <c r="E4">
-        <v>-0.00011</v>
+        <v>0.00011</v>
       </c>
       <c r="F4">
-        <v>0.00026</v>
+        <v>6.999999999999999E-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1014,19 +1014,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00037</v>
+        <v>0.00022</v>
       </c>
       <c r="D5">
-        <v>-6E-05</v>
+        <v>0.00011</v>
       </c>
       <c r="E5">
-        <v>0.00028</v>
+        <v>0.00022</v>
       </c>
       <c r="F5">
-        <v>0.00017</v>
+        <v>0.00011</v>
       </c>
       <c r="G5">
-        <v>-2E-05</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1035,19 +1035,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.00051</v>
+        <v>0.00042</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.00026</v>
       </c>
       <c r="E6">
-        <v>0.00052</v>
+        <v>0.00041</v>
       </c>
       <c r="F6">
-        <v>0.0002</v>
+        <v>0.00033</v>
       </c>
       <c r="G6">
-        <v>0.00017</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1056,19 +1056,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.00055</v>
+        <v>0.00039</v>
       </c>
       <c r="D7">
+        <v>0.00032</v>
+      </c>
+      <c r="E7">
+        <v>0.00032</v>
+      </c>
+      <c r="F7">
+        <v>0.00039</v>
+      </c>
+      <c r="G7">
         <v>0.00014</v>
-      </c>
-      <c r="E7">
-        <v>0.00068</v>
-      </c>
-      <c r="F7">
-        <v>0.00029</v>
-      </c>
-      <c r="G7">
-        <v>0.00028</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.02549</v>
+        <v>0.02568</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1088,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01744</v>
+        <v>0.01784</v>
       </c>
       <c r="D9">
-        <v>0.01581</v>
+        <v>0.01741</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1100,16 +1100,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01225</v>
+        <v>0.01331</v>
       </c>
       <c r="D10">
-        <v>0.01068</v>
+        <v>0.012</v>
       </c>
       <c r="E10">
-        <v>0.01068</v>
+        <v>0.01188</v>
       </c>
       <c r="F10">
-        <v>0.01104</v>
+        <v>0.01183</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1118,19 +1118,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.00992</v>
+        <v>0.01087</v>
       </c>
       <c r="D11">
-        <v>0.00953</v>
+        <v>0.01035</v>
       </c>
       <c r="E11">
-        <v>0.00993</v>
+        <v>0.01074</v>
       </c>
       <c r="F11">
-        <v>0.009979999999999999</v>
+        <v>0.01024</v>
       </c>
       <c r="G11">
-        <v>0.009350000000000001</v>
+        <v>0.01031</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1139,19 +1139,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.009169999999999999</v>
+        <v>0.01012</v>
       </c>
       <c r="D12">
-        <v>0.009390000000000001</v>
+        <v>0.00962</v>
       </c>
       <c r="E12">
-        <v>0.009509999999999999</v>
+        <v>0.00991</v>
       </c>
       <c r="F12">
-        <v>0.00958</v>
+        <v>0.009650000000000001</v>
       </c>
       <c r="G12">
-        <v>0.0092</v>
+        <v>0.009650000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1160,19 +1160,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.01283</v>
+        <v>0.009140000000000001</v>
       </c>
       <c r="D13">
-        <v>0.01117</v>
+        <v>0.00893</v>
       </c>
       <c r="E13">
-        <v>0.01213</v>
+        <v>0.00882</v>
       </c>
       <c r="F13">
-        <v>0.00881</v>
+        <v>0.009209999999999999</v>
       </c>
       <c r="G13">
-        <v>0.008580000000000001</v>
+        <v>0.00885</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.04508</v>
+        <v>0.03087</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1192,10 +1192,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.00203</v>
+        <v>0.03893</v>
       </c>
       <c r="D15">
-        <v>-0.04175</v>
+        <v>-0.03338</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1204,16 +1204,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.0491</v>
+        <v>0.05077</v>
       </c>
       <c r="D16">
-        <v>0.03868</v>
+        <v>0.009010000000000001</v>
       </c>
       <c r="E16">
-        <v>-0.02674</v>
+        <v>0.02687</v>
       </c>
       <c r="F16">
-        <v>0.06159</v>
+        <v>0.01579</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1222,19 +1222,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.08694</v>
+        <v>0.05173</v>
       </c>
       <c r="D17">
-        <v>-0.01457</v>
+        <v>0.02551</v>
       </c>
       <c r="E17">
-        <v>0.06759</v>
+        <v>0.05143</v>
       </c>
       <c r="F17">
-        <v>0.04107</v>
+        <v>0.02534</v>
       </c>
       <c r="G17">
-        <v>-0.00591</v>
+        <v>0.0277</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.12067</v>
+        <v>0.09943</v>
       </c>
       <c r="D18">
-        <v>0.00108</v>
+        <v>0.06157</v>
       </c>
       <c r="E18">
-        <v>0.12259</v>
+        <v>0.09723999999999999</v>
       </c>
       <c r="F18">
-        <v>0.0486</v>
+        <v>0.07746</v>
       </c>
       <c r="G18">
-        <v>0.04071</v>
+        <v>0.0258</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1264,19 +1264,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.13022</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="D19">
-        <v>0.03441</v>
+        <v>0.07581</v>
       </c>
       <c r="E19">
-        <v>0.16129</v>
+        <v>0.07563</v>
       </c>
       <c r="F19">
-        <v>0.07009</v>
+        <v>0.09378</v>
       </c>
       <c r="G19">
-        <v>0.06584</v>
+        <v>0.03399</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.11463</v>
+        <v>0.07792</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1296,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.00755</v>
+        <v>0.14143</v>
       </c>
       <c r="D21">
-        <v>-0.17121</v>
+        <v>-0.12426</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1308,16 +1308,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.25978</v>
+        <v>0.24723</v>
       </c>
       <c r="D22">
-        <v>0.23483</v>
+        <v>0.04867</v>
       </c>
       <c r="E22">
-        <v>-0.16225</v>
+        <v>0.14655</v>
       </c>
       <c r="F22">
-        <v>0.36173</v>
+        <v>0.08653</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,19 +1326,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.56789</v>
+        <v>0.30838</v>
       </c>
       <c r="D23">
-        <v>-0.09916999999999999</v>
+        <v>0.15975</v>
       </c>
       <c r="E23">
-        <v>0.44115</v>
+        <v>0.31038</v>
       </c>
       <c r="F23">
-        <v>0.26663</v>
+        <v>0.16034</v>
       </c>
       <c r="G23">
-        <v>-0.04099</v>
+        <v>0.17421</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1347,19 +1347,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.8530799999999999</v>
+        <v>0.63712</v>
       </c>
       <c r="D24">
-        <v>0.00746</v>
+        <v>0.41486</v>
       </c>
       <c r="E24">
-        <v>0.83529</v>
+        <v>0.63614</v>
       </c>
       <c r="F24">
-        <v>0.3287</v>
+        <v>0.52011</v>
       </c>
       <c r="G24">
-        <v>0.28683</v>
+        <v>0.17325</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1368,19 +1368,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.65786</v>
+        <v>0.65429</v>
       </c>
       <c r="D25">
-        <v>0.19961</v>
+        <v>0.55036</v>
       </c>
       <c r="E25">
-        <v>0.86222</v>
+        <v>0.55581</v>
       </c>
       <c r="F25">
-        <v>0.51548</v>
+        <v>0.66011</v>
       </c>
       <c r="G25">
-        <v>0.49741</v>
+        <v>0.24903</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.83509</v>
+        <v>-0.8504</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1400,10 +1400,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.60479</v>
+        <v>-0.67395</v>
       </c>
       <c r="D27">
-        <v>-0.72014</v>
+        <v>-0.83391</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1412,16 +1412,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.34862</v>
+        <v>-0.32364</v>
       </c>
       <c r="D28">
-        <v>-0.36999</v>
+        <v>-0.51525</v>
       </c>
       <c r="E28">
-        <v>-0.43768</v>
+        <v>-0.61064</v>
       </c>
       <c r="F28">
-        <v>-0.37251</v>
+        <v>-0.60516</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1430,19 +1430,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.25029</v>
+        <v>-0.26276</v>
       </c>
       <c r="D29">
-        <v>-0.47031</v>
+        <v>-0.35436</v>
       </c>
       <c r="E29">
-        <v>-0.33674</v>
+        <v>-0.31988</v>
       </c>
       <c r="F29">
-        <v>-0.27444</v>
+        <v>-0.50676</v>
       </c>
       <c r="G29">
-        <v>-0.34444</v>
+        <v>-0.44619</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.16067</v>
+        <v>-0.20994</v>
       </c>
       <c r="D30">
-        <v>-0.50371</v>
+        <v>-0.25622</v>
       </c>
       <c r="E30">
-        <v>-0.21887</v>
+        <v>-0.23152</v>
       </c>
       <c r="F30">
-        <v>-0.19592</v>
+        <v>-0.26634</v>
       </c>
       <c r="G30">
-        <v>-0.20861</v>
+        <v>-0.38412</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1472,19 +1472,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.31102</v>
+        <v>-0.17773</v>
       </c>
       <c r="D31">
-        <v>-0.43092</v>
+        <v>-0.20467</v>
       </c>
       <c r="E31">
-        <v>-0.22286</v>
+        <v>-0.19844</v>
       </c>
       <c r="F31">
-        <v>-0.1721</v>
+        <v>-0.27129</v>
       </c>
       <c r="G31">
-        <v>-0.17225</v>
+        <v>-0.33907</v>
       </c>
     </row>
   </sheetData>

--- a/data/report_df/cn_csi300_open_CSRankNorm_mse_IdentityReweighter.xlsx
+++ b/data/report_df/cn_csi300_open_CSRankNorm_mse_IdentityReweighter.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00189</v>
+        <v>0.00076</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -427,10 +427,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00114</v>
+        <v>0.00137</v>
       </c>
       <c r="D3">
-        <v>0.00131</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.00071</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="D4">
-        <v>0.00095</v>
+        <v>0.00122</v>
       </c>
       <c r="E4">
-        <v>0.00123</v>
+        <v>0.00124</v>
       </c>
       <c r="F4">
-        <v>0.00122</v>
+        <v>0.00096</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -460,16 +460,16 @@
         <v>0.00055</v>
       </c>
       <c r="D5">
-        <v>0.00077</v>
+        <v>0.0012</v>
       </c>
       <c r="E5">
-        <v>0.00119</v>
+        <v>0.00138</v>
       </c>
       <c r="F5">
-        <v>0.00117</v>
+        <v>0.00105</v>
       </c>
       <c r="G5">
-        <v>0.00126</v>
+        <v>0.00106</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.00068</v>
+        <v>0.00052</v>
       </c>
       <c r="D6">
-        <v>0.00079</v>
+        <v>0.00099</v>
       </c>
       <c r="E6">
-        <v>0.00117</v>
+        <v>0.00108</v>
       </c>
       <c r="F6">
-        <v>0.0013</v>
+        <v>0.0012</v>
       </c>
       <c r="G6">
-        <v>0.00123</v>
+        <v>0.00134</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -499,19 +499,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.0005999999999999999</v>
+        <v>0.00047</v>
       </c>
       <c r="D7">
-        <v>0.00074</v>
+        <v>0.00078</v>
       </c>
       <c r="E7">
-        <v>0.00094</v>
+        <v>0.00095</v>
       </c>
       <c r="F7">
-        <v>0.0012</v>
+        <v>0.00123</v>
       </c>
       <c r="G7">
-        <v>0.00109</v>
+        <v>0.00128</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.02562</v>
+        <v>0.02363</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -531,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01784</v>
+        <v>0.01786</v>
       </c>
       <c r="D9">
-        <v>0.01737</v>
+        <v>0.01823</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -543,16 +543,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01331</v>
+        <v>0.01318</v>
       </c>
       <c r="D10">
-        <v>0.01198</v>
+        <v>0.01407</v>
       </c>
       <c r="E10">
-        <v>0.01186</v>
+        <v>0.01347</v>
       </c>
       <c r="F10">
-        <v>0.0118</v>
+        <v>0.01167</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -561,19 +561,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01087</v>
+        <v>0.01092</v>
       </c>
       <c r="D11">
-        <v>0.01035</v>
+        <v>0.01188</v>
       </c>
       <c r="E11">
-        <v>0.01074</v>
+        <v>0.01165</v>
       </c>
       <c r="F11">
-        <v>0.01022</v>
+        <v>0.01058</v>
       </c>
       <c r="G11">
-        <v>0.01028</v>
+        <v>0.01055</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -582,19 +582,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01011</v>
+        <v>0.01029</v>
       </c>
       <c r="D12">
-        <v>0.00962</v>
+        <v>0.0098</v>
       </c>
       <c r="E12">
-        <v>0.00991</v>
+        <v>0.01018</v>
       </c>
       <c r="F12">
-        <v>0.009650000000000001</v>
+        <v>0.01014</v>
       </c>
       <c r="G12">
-        <v>0.009639999999999999</v>
+        <v>0.01018</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -603,19 +603,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.00915</v>
+        <v>0.009180000000000001</v>
       </c>
       <c r="D13">
-        <v>0.00893</v>
+        <v>0.008750000000000001</v>
       </c>
       <c r="E13">
-        <v>0.00882</v>
+        <v>0.008959999999999999</v>
       </c>
       <c r="F13">
-        <v>0.009209999999999999</v>
+        <v>0.00933</v>
       </c>
       <c r="G13">
-        <v>0.008840000000000001</v>
+        <v>0.00895</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.44966</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -635,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.27057</v>
+        <v>0.326</v>
       </c>
       <c r="D15">
-        <v>0.3113</v>
+        <v>0.28496</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -647,16 +647,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.16893</v>
+        <v>0.22128</v>
       </c>
       <c r="D16">
-        <v>0.22646</v>
+        <v>0.29065</v>
       </c>
       <c r="E16">
-        <v>0.29324</v>
+        <v>0.29607</v>
       </c>
       <c r="F16">
-        <v>0.28984</v>
+        <v>0.2287</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -665,19 +665,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.132</v>
+        <v>0.13113</v>
       </c>
       <c r="D17">
-        <v>0.18254</v>
+        <v>0.28495</v>
       </c>
       <c r="E17">
-        <v>0.28251</v>
+        <v>0.32741</v>
       </c>
       <c r="F17">
-        <v>0.27872</v>
+        <v>0.25065</v>
       </c>
       <c r="G17">
-        <v>0.29985</v>
+        <v>0.25212</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,19 +686,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.16112</v>
+        <v>0.12361</v>
       </c>
       <c r="D18">
-        <v>0.18841</v>
+        <v>0.23514</v>
       </c>
       <c r="E18">
-        <v>0.27782</v>
+        <v>0.25643</v>
       </c>
       <c r="F18">
-        <v>0.30834</v>
+        <v>0.28555</v>
       </c>
       <c r="G18">
-        <v>0.29202</v>
+        <v>0.31915</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -707,19 +707,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.14387</v>
+        <v>0.11162</v>
       </c>
       <c r="D19">
-        <v>0.17647</v>
+        <v>0.18557</v>
       </c>
       <c r="E19">
-        <v>0.22428</v>
+        <v>0.22607</v>
       </c>
       <c r="F19">
-        <v>0.28503</v>
+        <v>0.29186</v>
       </c>
       <c r="G19">
-        <v>0.25835</v>
+        <v>0.30507</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1.13779</v>
+        <v>0.49935</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -739,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.9831299999999999</v>
+        <v>1.1834</v>
       </c>
       <c r="D21">
-        <v>1.16183</v>
+        <v>1.01351</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -751,16 +751,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.82258</v>
+        <v>1.08822</v>
       </c>
       <c r="D22">
-        <v>1.22523</v>
+        <v>1.33925</v>
       </c>
       <c r="E22">
-        <v>1.60306</v>
+        <v>1.42518</v>
       </c>
       <c r="F22">
-        <v>1.59254</v>
+        <v>1.27009</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -769,19 +769,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.78717</v>
+        <v>0.77837</v>
       </c>
       <c r="D23">
-        <v>1.14363</v>
+        <v>1.55526</v>
       </c>
       <c r="E23">
-        <v>1.70529</v>
+        <v>1.82155</v>
       </c>
       <c r="F23">
-        <v>1.76716</v>
+        <v>1.5355</v>
       </c>
       <c r="G23">
-        <v>1.88997</v>
+        <v>1.54896</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -790,19 +790,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>1.03252</v>
+        <v>0.7786</v>
       </c>
       <c r="D24">
-        <v>1.26945</v>
+        <v>1.55587</v>
       </c>
       <c r="E24">
-        <v>1.81759</v>
+        <v>1.63301</v>
       </c>
       <c r="F24">
-        <v>2.07139</v>
+        <v>1.82569</v>
       </c>
       <c r="G24">
-        <v>1.96321</v>
+        <v>2.03259</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -811,19 +811,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>1.0195</v>
+        <v>0.78832</v>
       </c>
       <c r="D25">
-        <v>1.28115</v>
+        <v>1.37433</v>
       </c>
       <c r="E25">
-        <v>1.64852</v>
+        <v>1.63514</v>
       </c>
       <c r="F25">
-        <v>2.00673</v>
+        <v>2.02711</v>
       </c>
       <c r="G25">
-        <v>1.89457</v>
+        <v>2.20827</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.48156</v>
+        <v>-0.53932</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -843,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.39196</v>
+        <v>-0.27228</v>
       </c>
       <c r="D27">
-        <v>-0.33688</v>
+        <v>-0.34336</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -855,16 +855,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.24669</v>
+        <v>-0.2453</v>
       </c>
       <c r="D28">
-        <v>-0.26726</v>
+        <v>-0.27391</v>
       </c>
       <c r="E28">
-        <v>-0.25008</v>
+        <v>-0.2589</v>
       </c>
       <c r="F28">
-        <v>-0.25001</v>
+        <v>-0.29511</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -873,19 +873,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.23145</v>
+        <v>-0.19179</v>
       </c>
       <c r="D29">
-        <v>-0.23539</v>
+        <v>-0.18552</v>
       </c>
       <c r="E29">
-        <v>-0.19741</v>
+        <v>-0.16682</v>
       </c>
       <c r="F29">
-        <v>-0.19188</v>
+        <v>-0.19422</v>
       </c>
       <c r="G29">
-        <v>-0.20431</v>
+        <v>-0.17538</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -894,19 +894,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.18555</v>
+        <v>-0.21058</v>
       </c>
       <c r="D30">
-        <v>-0.18237</v>
+        <v>-0.18346</v>
       </c>
       <c r="E30">
-        <v>-0.20207</v>
+        <v>-0.1729</v>
       </c>
       <c r="F30">
-        <v>-0.19104</v>
+        <v>-0.116</v>
       </c>
       <c r="G30">
-        <v>-0.19304</v>
+        <v>-0.11739</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -915,19 +915,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.15646</v>
+        <v>-0.20559</v>
       </c>
       <c r="D31">
-        <v>-0.18971</v>
+        <v>-0.15441</v>
       </c>
       <c r="E31">
-        <v>-0.17222</v>
+        <v>-0.15447</v>
       </c>
       <c r="F31">
-        <v>-0.20407</v>
+        <v>-0.11283</v>
       </c>
       <c r="G31">
-        <v>-0.18703</v>
+        <v>-0.10983</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00013</v>
+        <v>-0.00084</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -984,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00016</v>
+        <v>0.00041</v>
       </c>
       <c r="D3">
-        <v>-0.00014</v>
+        <v>-0.00034</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -996,16 +996,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.00021</v>
+        <v>0.00044</v>
       </c>
       <c r="D4">
-        <v>4E-05</v>
+        <v>0.00026</v>
       </c>
       <c r="E4">
-        <v>0.00011</v>
+        <v>-5E-05</v>
       </c>
       <c r="F4">
-        <v>6.999999999999999E-05</v>
+        <v>-0.00016</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1014,19 +1014,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00022</v>
+        <v>0.00023</v>
       </c>
       <c r="D5">
-        <v>0.00011</v>
+        <v>0.00054</v>
       </c>
       <c r="E5">
-        <v>0.00022</v>
+        <v>0.00042</v>
       </c>
       <c r="F5">
-        <v>0.00011</v>
+        <v>-8.000000000000001E-05</v>
       </c>
       <c r="G5">
-        <v>0.00012</v>
+        <v>-0.00015</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1035,19 +1035,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.00042</v>
+        <v>0.00026</v>
       </c>
       <c r="D6">
-        <v>0.00026</v>
+        <v>0.00046</v>
       </c>
       <c r="E6">
-        <v>0.00041</v>
+        <v>0.00032</v>
       </c>
       <c r="F6">
-        <v>0.00033</v>
+        <v>0.00023</v>
       </c>
       <c r="G6">
-        <v>0.00011</v>
+        <v>0.00021</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1056,19 +1056,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.00039</v>
+        <v>0.00027</v>
       </c>
       <c r="D7">
-        <v>0.00032</v>
+        <v>0.00036</v>
       </c>
       <c r="E7">
-        <v>0.00032</v>
+        <v>0.00034</v>
       </c>
       <c r="F7">
-        <v>0.00039</v>
+        <v>0.00043</v>
       </c>
       <c r="G7">
-        <v>0.00014</v>
+        <v>0.00036</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.02568</v>
+        <v>0.02365</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1088,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01784</v>
+        <v>0.01786</v>
       </c>
       <c r="D9">
-        <v>0.01741</v>
+        <v>0.01824</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1100,16 +1100,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01331</v>
+        <v>0.01318</v>
       </c>
       <c r="D10">
-        <v>0.012</v>
+        <v>0.01407</v>
       </c>
       <c r="E10">
-        <v>0.01188</v>
+        <v>0.01347</v>
       </c>
       <c r="F10">
-        <v>0.01183</v>
+        <v>0.01167</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1118,19 +1118,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01087</v>
+        <v>0.01092</v>
       </c>
       <c r="D11">
-        <v>0.01035</v>
+        <v>0.01188</v>
       </c>
       <c r="E11">
-        <v>0.01074</v>
+        <v>0.01166</v>
       </c>
       <c r="F11">
-        <v>0.01024</v>
+        <v>0.01059</v>
       </c>
       <c r="G11">
-        <v>0.01031</v>
+        <v>0.01056</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1139,19 +1139,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01012</v>
+        <v>0.01029</v>
       </c>
       <c r="D12">
-        <v>0.00962</v>
+        <v>0.0098</v>
       </c>
       <c r="E12">
-        <v>0.00991</v>
+        <v>0.01018</v>
       </c>
       <c r="F12">
-        <v>0.009650000000000001</v>
+        <v>0.01014</v>
       </c>
       <c r="G12">
-        <v>0.009650000000000001</v>
+        <v>0.01018</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1160,19 +1160,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.009140000000000001</v>
+        <v>0.009180000000000001</v>
       </c>
       <c r="D13">
-        <v>0.00893</v>
+        <v>0.008750000000000001</v>
       </c>
       <c r="E13">
-        <v>0.00882</v>
+        <v>0.008959999999999999</v>
       </c>
       <c r="F13">
-        <v>0.009209999999999999</v>
+        <v>0.009339999999999999</v>
       </c>
       <c r="G13">
-        <v>0.00885</v>
+        <v>0.008959999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.03087</v>
+        <v>-0.1997</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1192,10 +1192,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.03893</v>
+        <v>0.09846000000000001</v>
       </c>
       <c r="D15">
-        <v>-0.03338</v>
+        <v>-0.08185000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1204,16 +1204,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.05077</v>
+        <v>0.10506</v>
       </c>
       <c r="D16">
-        <v>0.009010000000000001</v>
+        <v>0.06136</v>
       </c>
       <c r="E16">
-        <v>0.02687</v>
+        <v>-0.0118</v>
       </c>
       <c r="F16">
-        <v>0.01579</v>
+        <v>-0.03864</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1222,19 +1222,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.05173</v>
+        <v>0.05374</v>
       </c>
       <c r="D17">
-        <v>0.02551</v>
+        <v>0.128</v>
       </c>
       <c r="E17">
-        <v>0.05143</v>
+        <v>0.09909</v>
       </c>
       <c r="F17">
-        <v>0.02534</v>
+        <v>-0.01888</v>
       </c>
       <c r="G17">
-        <v>0.0277</v>
+        <v>-0.03461</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.09943</v>
+        <v>0.06288000000000001</v>
       </c>
       <c r="D18">
-        <v>0.06157</v>
+        <v>0.11052</v>
       </c>
       <c r="E18">
-        <v>0.09723999999999999</v>
+        <v>0.07653</v>
       </c>
       <c r="F18">
-        <v>0.07746</v>
+        <v>0.05494</v>
       </c>
       <c r="G18">
-        <v>0.0258</v>
+        <v>0.04995</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1264,19 +1264,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.09229999999999999</v>
+        <v>0.06368</v>
       </c>
       <c r="D19">
-        <v>0.07581</v>
+        <v>0.08484</v>
       </c>
       <c r="E19">
-        <v>0.07563</v>
+        <v>0.08172</v>
       </c>
       <c r="F19">
-        <v>0.09378</v>
+        <v>0.1031</v>
       </c>
       <c r="G19">
-        <v>0.03399</v>
+        <v>0.08464000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.07792</v>
+        <v>-0.5472399999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1296,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.14143</v>
+        <v>0.35727</v>
       </c>
       <c r="D21">
-        <v>-0.12426</v>
+        <v>-0.29081</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1308,16 +1308,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.24723</v>
+        <v>0.5166500000000001</v>
       </c>
       <c r="D22">
-        <v>0.04867</v>
+        <v>0.28267</v>
       </c>
       <c r="E22">
-        <v>0.14655</v>
+        <v>-0.0568</v>
       </c>
       <c r="F22">
-        <v>0.08653</v>
+        <v>-0.21463</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,19 +1326,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.30838</v>
+        <v>0.319</v>
       </c>
       <c r="D23">
-        <v>0.15975</v>
+        <v>0.6986</v>
       </c>
       <c r="E23">
-        <v>0.31038</v>
+        <v>0.551</v>
       </c>
       <c r="F23">
-        <v>0.16034</v>
+        <v>-0.11558</v>
       </c>
       <c r="G23">
-        <v>0.17421</v>
+        <v>-0.21245</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1347,19 +1347,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.63712</v>
+        <v>0.39612</v>
       </c>
       <c r="D24">
-        <v>0.41486</v>
+        <v>0.73123</v>
       </c>
       <c r="E24">
-        <v>0.63614</v>
+        <v>0.4872</v>
       </c>
       <c r="F24">
-        <v>0.52011</v>
+        <v>0.35105</v>
       </c>
       <c r="G24">
-        <v>0.17325</v>
+        <v>0.31794</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1368,19 +1368,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.65429</v>
+        <v>0.44974</v>
       </c>
       <c r="D25">
-        <v>0.55036</v>
+        <v>0.62818</v>
       </c>
       <c r="E25">
-        <v>0.55581</v>
+        <v>0.59088</v>
       </c>
       <c r="F25">
-        <v>0.66011</v>
+        <v>0.71591</v>
       </c>
       <c r="G25">
-        <v>0.24903</v>
+        <v>0.61254</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.8504</v>
+        <v>-1.45429</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1400,10 +1400,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.67395</v>
+        <v>-0.35905</v>
       </c>
       <c r="D27">
-        <v>-0.83391</v>
+        <v>-0.91329</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1412,16 +1412,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.32364</v>
+        <v>-0.29043</v>
       </c>
       <c r="D28">
-        <v>-0.51525</v>
+        <v>-0.46343</v>
       </c>
       <c r="E28">
-        <v>-0.61064</v>
+        <v>-0.64085</v>
       </c>
       <c r="F28">
-        <v>-0.60516</v>
+        <v>-0.63205</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1430,19 +1430,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.26276</v>
+        <v>-0.23869</v>
       </c>
       <c r="D29">
-        <v>-0.35436</v>
+        <v>-0.29182</v>
       </c>
       <c r="E29">
-        <v>-0.31988</v>
+        <v>-0.35236</v>
       </c>
       <c r="F29">
-        <v>-0.50676</v>
+        <v>-0.47483</v>
       </c>
       <c r="G29">
-        <v>-0.44619</v>
+        <v>-0.49182</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.20994</v>
+        <v>-0.23253</v>
       </c>
       <c r="D30">
-        <v>-0.25622</v>
+        <v>-0.23223</v>
       </c>
       <c r="E30">
-        <v>-0.23152</v>
+        <v>-0.30104</v>
       </c>
       <c r="F30">
-        <v>-0.26634</v>
+        <v>-0.2392</v>
       </c>
       <c r="G30">
-        <v>-0.38412</v>
+        <v>-0.26926</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1472,19 +1472,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.17773</v>
+        <v>-0.22346</v>
       </c>
       <c r="D31">
-        <v>-0.20467</v>
+        <v>-0.19504</v>
       </c>
       <c r="E31">
-        <v>-0.19844</v>
+        <v>-0.2355</v>
       </c>
       <c r="F31">
-        <v>-0.27129</v>
+        <v>-0.18331</v>
       </c>
       <c r="G31">
-        <v>-0.33907</v>
+        <v>-0.18295</v>
       </c>
     </row>
   </sheetData>

--- a/data/report_df/cn_csi300_open_CSRankNorm_mse_IdentityReweighter.xlsx
+++ b/data/report_df/cn_csi300_open_CSRankNorm_mse_IdentityReweighter.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00076</v>
+        <v>0.00188</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -427,10 +427,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00137</v>
+        <v>0.00135</v>
       </c>
       <c r="D3">
-        <v>0.0012</v>
+        <v>0.00169</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.0009300000000000001</v>
+        <v>0.00116</v>
       </c>
       <c r="D4">
-        <v>0.00122</v>
+        <v>0.00149</v>
       </c>
       <c r="E4">
-        <v>0.00124</v>
+        <v>0.00139</v>
       </c>
       <c r="F4">
-        <v>0.00096</v>
+        <v>0.00154</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -457,19 +457,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00055</v>
+        <v>0.00099</v>
       </c>
       <c r="D5">
-        <v>0.0012</v>
+        <v>0.00115</v>
       </c>
       <c r="E5">
-        <v>0.00138</v>
+        <v>0.00152</v>
       </c>
       <c r="F5">
-        <v>0.00105</v>
+        <v>0.00167</v>
       </c>
       <c r="G5">
-        <v>0.00106</v>
+        <v>0.00155</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.00052</v>
+        <v>0.00077</v>
       </c>
       <c r="D6">
         <v>0.00099</v>
       </c>
       <c r="E6">
-        <v>0.00108</v>
+        <v>0.00132</v>
       </c>
       <c r="F6">
-        <v>0.0012</v>
+        <v>0.00146</v>
       </c>
       <c r="G6">
-        <v>0.00134</v>
+        <v>0.00159</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -499,19 +499,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.00047</v>
+        <v>0.00059</v>
       </c>
       <c r="D7">
-        <v>0.00078</v>
+        <v>0.00085</v>
       </c>
       <c r="E7">
-        <v>0.00095</v>
+        <v>0.00135</v>
       </c>
       <c r="F7">
-        <v>0.00123</v>
+        <v>0.00129</v>
       </c>
       <c r="G7">
-        <v>0.00128</v>
+        <v>0.00143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.02363</v>
+        <v>0.02285</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -531,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01786</v>
+        <v>0.01726</v>
       </c>
       <c r="D9">
-        <v>0.01823</v>
+        <v>0.01701</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -543,16 +543,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01318</v>
+        <v>0.01327</v>
       </c>
       <c r="D10">
-        <v>0.01407</v>
+        <v>0.01313</v>
       </c>
       <c r="E10">
-        <v>0.01347</v>
+        <v>0.01204</v>
       </c>
       <c r="F10">
-        <v>0.01167</v>
+        <v>0.01203</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -561,19 +561,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01092</v>
+        <v>0.01095</v>
       </c>
       <c r="D11">
-        <v>0.01188</v>
+        <v>0.01142</v>
       </c>
       <c r="E11">
-        <v>0.01165</v>
+        <v>0.01114</v>
       </c>
       <c r="F11">
-        <v>0.01058</v>
+        <v>0.01084</v>
       </c>
       <c r="G11">
-        <v>0.01055</v>
+        <v>0.01042</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -582,19 +582,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01029</v>
+        <v>0.009820000000000001</v>
       </c>
       <c r="D12">
-        <v>0.0098</v>
+        <v>0.00978</v>
       </c>
       <c r="E12">
-        <v>0.01018</v>
+        <v>0.00997</v>
       </c>
       <c r="F12">
-        <v>0.01014</v>
+        <v>0.009849999999999999</v>
       </c>
       <c r="G12">
-        <v>0.01018</v>
+        <v>0.009480000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -603,19 +603,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.009180000000000001</v>
+        <v>0.00851</v>
       </c>
       <c r="D13">
-        <v>0.008750000000000001</v>
+        <v>0.00925</v>
       </c>
       <c r="E13">
-        <v>0.008959999999999999</v>
+        <v>0.00924</v>
       </c>
       <c r="F13">
-        <v>0.00933</v>
+        <v>0.008920000000000001</v>
       </c>
       <c r="G13">
-        <v>0.00895</v>
+        <v>0.008840000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.182</v>
+        <v>0.44747</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -635,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.326</v>
+        <v>0.32109</v>
       </c>
       <c r="D15">
-        <v>0.28496</v>
+        <v>0.40304</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -647,16 +647,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.22128</v>
+        <v>0.27555</v>
       </c>
       <c r="D16">
-        <v>0.29065</v>
+        <v>0.35581</v>
       </c>
       <c r="E16">
-        <v>0.29607</v>
+        <v>0.33171</v>
       </c>
       <c r="F16">
-        <v>0.2287</v>
+        <v>0.3665</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -665,19 +665,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.13113</v>
+        <v>0.23561</v>
       </c>
       <c r="D17">
-        <v>0.28495</v>
+        <v>0.27278</v>
       </c>
       <c r="E17">
-        <v>0.32741</v>
+        <v>0.36101</v>
       </c>
       <c r="F17">
-        <v>0.25065</v>
+        <v>0.39713</v>
       </c>
       <c r="G17">
-        <v>0.25212</v>
+        <v>0.36829</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,19 +686,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.12361</v>
+        <v>0.18395</v>
       </c>
       <c r="D18">
-        <v>0.23514</v>
+        <v>0.23675</v>
       </c>
       <c r="E18">
-        <v>0.25643</v>
+        <v>0.31379</v>
       </c>
       <c r="F18">
-        <v>0.28555</v>
+        <v>0.34776</v>
       </c>
       <c r="G18">
-        <v>0.31915</v>
+        <v>0.37842</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -707,19 +707,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.11162</v>
+        <v>0.13981</v>
       </c>
       <c r="D19">
-        <v>0.18557</v>
+        <v>0.20301</v>
       </c>
       <c r="E19">
-        <v>0.22607</v>
+        <v>0.32066</v>
       </c>
       <c r="F19">
-        <v>0.29186</v>
+        <v>0.30814</v>
       </c>
       <c r="G19">
-        <v>0.30507</v>
+        <v>0.33935</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.49935</v>
+        <v>1.2694</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -739,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1.1834</v>
+        <v>1.20565</v>
       </c>
       <c r="D21">
-        <v>1.01351</v>
+        <v>1.53619</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -751,16 +751,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>1.08822</v>
+        <v>1.34631</v>
       </c>
       <c r="D22">
-        <v>1.33925</v>
+        <v>1.75688</v>
       </c>
       <c r="E22">
-        <v>1.42518</v>
+        <v>1.78636</v>
       </c>
       <c r="F22">
-        <v>1.27009</v>
+        <v>1.97546</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -769,19 +769,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.77837</v>
+        <v>1.39473</v>
       </c>
       <c r="D23">
-        <v>1.55526</v>
+        <v>1.54776</v>
       </c>
       <c r="E23">
-        <v>1.82155</v>
+        <v>2.10049</v>
       </c>
       <c r="F23">
-        <v>1.5355</v>
+        <v>2.37371</v>
       </c>
       <c r="G23">
-        <v>1.54896</v>
+        <v>2.29151</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -790,19 +790,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.7786</v>
+        <v>1.21444</v>
       </c>
       <c r="D24">
-        <v>1.55587</v>
+        <v>1.56866</v>
       </c>
       <c r="E24">
-        <v>1.63301</v>
+        <v>2.03924</v>
       </c>
       <c r="F24">
-        <v>1.82569</v>
+        <v>2.28837</v>
       </c>
       <c r="G24">
-        <v>2.03259</v>
+        <v>2.58846</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -811,19 +811,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.78832</v>
+        <v>1.06546</v>
       </c>
       <c r="D25">
-        <v>1.37433</v>
+        <v>1.42274</v>
       </c>
       <c r="E25">
-        <v>1.63514</v>
+        <v>2.24857</v>
       </c>
       <c r="F25">
-        <v>2.02711</v>
+        <v>2.23893</v>
       </c>
       <c r="G25">
-        <v>2.20827</v>
+        <v>2.48714</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.53932</v>
+        <v>-0.31512</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -843,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.27228</v>
+        <v>-0.23481</v>
       </c>
       <c r="D27">
-        <v>-0.34336</v>
+        <v>-0.20459</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -855,16 +855,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.2453</v>
+        <v>-0.2338</v>
       </c>
       <c r="D28">
-        <v>-0.27391</v>
+        <v>-0.17257</v>
       </c>
       <c r="E28">
-        <v>-0.2589</v>
+        <v>-0.12828</v>
       </c>
       <c r="F28">
-        <v>-0.29511</v>
+        <v>-0.09785000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -873,19 +873,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.19179</v>
+        <v>-0.20224</v>
       </c>
       <c r="D29">
-        <v>-0.18552</v>
+        <v>-0.18248</v>
       </c>
       <c r="E29">
-        <v>-0.16682</v>
+        <v>-0.14872</v>
       </c>
       <c r="F29">
-        <v>-0.19422</v>
+        <v>-0.13071</v>
       </c>
       <c r="G29">
-        <v>-0.17538</v>
+        <v>-0.12808</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -894,19 +894,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.21058</v>
+        <v>-0.21401</v>
       </c>
       <c r="D30">
-        <v>-0.18346</v>
+        <v>-0.16232</v>
       </c>
       <c r="E30">
-        <v>-0.1729</v>
+        <v>-0.12618</v>
       </c>
       <c r="F30">
-        <v>-0.116</v>
+        <v>-0.12021</v>
       </c>
       <c r="G30">
-        <v>-0.11739</v>
+        <v>-0.12519</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -915,19 +915,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.20559</v>
+        <v>-0.15767</v>
       </c>
       <c r="D31">
-        <v>-0.15441</v>
+        <v>-0.15901</v>
       </c>
       <c r="E31">
-        <v>-0.15447</v>
+        <v>-0.10487</v>
       </c>
       <c r="F31">
-        <v>-0.11283</v>
+        <v>-0.12939</v>
       </c>
       <c r="G31">
-        <v>-0.10983</v>
+        <v>-0.11272</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.00084</v>
+        <v>0.00024</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -984,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00041</v>
+        <v>0.00039</v>
       </c>
       <c r="D3">
-        <v>-0.00034</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -996,16 +996,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.00044</v>
+        <v>0.00066</v>
       </c>
       <c r="D4">
-        <v>0.00026</v>
+        <v>0.00053</v>
       </c>
       <c r="E4">
-        <v>-5E-05</v>
+        <v>0.00011</v>
       </c>
       <c r="F4">
-        <v>-0.00016</v>
+        <v>0.00019</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1014,19 +1014,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00023</v>
+        <v>0.00063</v>
       </c>
       <c r="D5">
-        <v>0.00054</v>
+        <v>0.00049</v>
       </c>
       <c r="E5">
-        <v>0.00042</v>
+        <v>0.00052</v>
       </c>
       <c r="F5">
-        <v>-8.000000000000001E-05</v>
+        <v>0.00044</v>
       </c>
       <c r="G5">
-        <v>-0.00015</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1035,19 +1035,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.00026</v>
+        <v>0.00051</v>
       </c>
       <c r="D6">
-        <v>0.00046</v>
+        <v>0.00048</v>
       </c>
       <c r="E6">
-        <v>0.00032</v>
+        <v>0.00056</v>
       </c>
       <c r="F6">
-        <v>0.00023</v>
+        <v>0.00047</v>
       </c>
       <c r="G6">
-        <v>0.00021</v>
+        <v>0.00042</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1056,19 +1056,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.00027</v>
+        <v>0.00037</v>
       </c>
       <c r="D7">
-        <v>0.00036</v>
+        <v>0.00044</v>
       </c>
       <c r="E7">
-        <v>0.00034</v>
+        <v>0.00074</v>
       </c>
       <c r="F7">
+        <v>0.00048</v>
+      </c>
+      <c r="G7">
         <v>0.00043</v>
-      </c>
-      <c r="G7">
-        <v>0.00036</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.02365</v>
+        <v>0.02294</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1088,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01786</v>
+        <v>0.01727</v>
       </c>
       <c r="D9">
-        <v>0.01824</v>
+        <v>0.01705</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1100,16 +1100,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01318</v>
+        <v>0.01327</v>
       </c>
       <c r="D10">
-        <v>0.01407</v>
+        <v>0.01313</v>
       </c>
       <c r="E10">
-        <v>0.01347</v>
+        <v>0.01206</v>
       </c>
       <c r="F10">
-        <v>0.01167</v>
+        <v>0.01205</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1118,19 +1118,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01092</v>
+        <v>0.01095</v>
       </c>
       <c r="D11">
-        <v>0.01188</v>
+        <v>0.01142</v>
       </c>
       <c r="E11">
-        <v>0.01166</v>
+        <v>0.01114</v>
       </c>
       <c r="F11">
-        <v>0.01059</v>
+        <v>0.01086</v>
       </c>
       <c r="G11">
-        <v>0.01056</v>
+        <v>0.01044</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1139,19 +1139,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01029</v>
+        <v>0.009820000000000001</v>
       </c>
       <c r="D12">
-        <v>0.0098</v>
+        <v>0.00978</v>
       </c>
       <c r="E12">
-        <v>0.01018</v>
+        <v>0.00997</v>
       </c>
       <c r="F12">
-        <v>0.01014</v>
+        <v>0.009860000000000001</v>
       </c>
       <c r="G12">
-        <v>0.01018</v>
+        <v>0.00949</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1160,19 +1160,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.009180000000000001</v>
+        <v>0.00851</v>
       </c>
       <c r="D13">
-        <v>0.008750000000000001</v>
+        <v>0.00925</v>
       </c>
       <c r="E13">
-        <v>0.008959999999999999</v>
+        <v>0.00924</v>
       </c>
       <c r="F13">
-        <v>0.009339999999999999</v>
+        <v>0.008920000000000001</v>
       </c>
       <c r="G13">
-        <v>0.008959999999999999</v>
+        <v>0.00885</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>-0.1997</v>
+        <v>0.05711</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1192,10 +1192,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.09846000000000001</v>
+        <v>0.09315</v>
       </c>
       <c r="D15">
-        <v>-0.08185000000000001</v>
+        <v>0.02948</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1204,16 +1204,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.10506</v>
+        <v>0.15694</v>
       </c>
       <c r="D16">
-        <v>0.06136</v>
+        <v>0.12508</v>
       </c>
       <c r="E16">
-        <v>-0.0118</v>
+        <v>0.02616</v>
       </c>
       <c r="F16">
-        <v>-0.03864</v>
+        <v>0.04585</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1222,19 +1222,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.05374</v>
+        <v>0.15078</v>
       </c>
       <c r="D17">
-        <v>0.128</v>
+        <v>0.11593</v>
       </c>
       <c r="E17">
-        <v>0.09909</v>
+        <v>0.12323</v>
       </c>
       <c r="F17">
-        <v>-0.01888</v>
+        <v>0.10388</v>
       </c>
       <c r="G17">
-        <v>-0.03461</v>
+        <v>0.07554</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.06288000000000001</v>
+        <v>0.12065</v>
       </c>
       <c r="D18">
-        <v>0.11052</v>
+        <v>0.11508</v>
       </c>
       <c r="E18">
-        <v>0.07653</v>
+        <v>0.1333</v>
       </c>
       <c r="F18">
-        <v>0.05494</v>
+        <v>0.11078</v>
       </c>
       <c r="G18">
-        <v>0.04995</v>
+        <v>0.10076</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1264,19 +1264,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.06368</v>
+        <v>0.0891</v>
       </c>
       <c r="D19">
-        <v>0.08484</v>
+        <v>0.10513</v>
       </c>
       <c r="E19">
-        <v>0.08172</v>
+        <v>0.17542</v>
       </c>
       <c r="F19">
-        <v>0.1031</v>
+        <v>0.11331</v>
       </c>
       <c r="G19">
-        <v>0.08464000000000001</v>
+        <v>0.10127</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>-0.5472399999999999</v>
+        <v>0.16135</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1296,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.35727</v>
+        <v>0.34961</v>
       </c>
       <c r="D21">
-        <v>-0.29081</v>
+        <v>0.11208</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1308,16 +1308,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.5166500000000001</v>
+        <v>0.7668700000000001</v>
       </c>
       <c r="D22">
-        <v>0.28267</v>
+        <v>0.61754</v>
       </c>
       <c r="E22">
-        <v>-0.0568</v>
+        <v>0.1406</v>
       </c>
       <c r="F22">
-        <v>-0.21463</v>
+        <v>0.24665</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,19 +1326,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.319</v>
+        <v>0.89256</v>
       </c>
       <c r="D23">
-        <v>0.6986</v>
+        <v>0.65786</v>
       </c>
       <c r="E23">
-        <v>0.551</v>
+        <v>0.71678</v>
       </c>
       <c r="F23">
-        <v>-0.11558</v>
+        <v>0.61999</v>
       </c>
       <c r="G23">
-        <v>-0.21245</v>
+        <v>0.46895</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1347,19 +1347,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.39612</v>
+        <v>0.79649</v>
       </c>
       <c r="D24">
-        <v>0.73123</v>
+        <v>0.76259</v>
       </c>
       <c r="E24">
-        <v>0.4872</v>
+        <v>0.8663</v>
       </c>
       <c r="F24">
-        <v>0.35105</v>
+        <v>0.72865</v>
       </c>
       <c r="G24">
-        <v>0.31794</v>
+        <v>0.68824</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1368,19 +1368,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.44974</v>
+        <v>0.67879</v>
       </c>
       <c r="D25">
-        <v>0.62818</v>
+        <v>0.73682</v>
       </c>
       <c r="E25">
-        <v>0.59088</v>
+        <v>1.23018</v>
       </c>
       <c r="F25">
-        <v>0.71591</v>
+        <v>0.82322</v>
       </c>
       <c r="G25">
-        <v>0.61254</v>
+        <v>0.74193</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-1.45429</v>
+        <v>-0.69162</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1400,10 +1400,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.35905</v>
+        <v>-0.385</v>
       </c>
       <c r="D27">
-        <v>-0.91329</v>
+        <v>-0.45329</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1412,16 +1412,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.29043</v>
+        <v>-0.29431</v>
       </c>
       <c r="D28">
-        <v>-0.46343</v>
+        <v>-0.21329</v>
       </c>
       <c r="E28">
-        <v>-0.64085</v>
+        <v>-0.3019</v>
       </c>
       <c r="F28">
-        <v>-0.63205</v>
+        <v>-0.22719</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1430,19 +1430,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.23869</v>
+        <v>-0.22713</v>
       </c>
       <c r="D29">
-        <v>-0.29182</v>
+        <v>-0.28584</v>
       </c>
       <c r="E29">
-        <v>-0.35236</v>
+        <v>-0.21068</v>
       </c>
       <c r="F29">
-        <v>-0.47483</v>
+        <v>-0.19378</v>
       </c>
       <c r="G29">
-        <v>-0.49182</v>
+        <v>-0.19109</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.23253</v>
+        <v>-0.24962</v>
       </c>
       <c r="D30">
-        <v>-0.23223</v>
+        <v>-0.22402</v>
       </c>
       <c r="E30">
-        <v>-0.30104</v>
+        <v>-0.1886</v>
       </c>
       <c r="F30">
-        <v>-0.2392</v>
+        <v>-0.23762</v>
       </c>
       <c r="G30">
-        <v>-0.26926</v>
+        <v>-0.15683</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1472,19 +1472,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.22346</v>
+        <v>-0.18809</v>
       </c>
       <c r="D31">
-        <v>-0.19504</v>
+        <v>-0.24947</v>
       </c>
       <c r="E31">
-        <v>-0.2355</v>
+        <v>-0.16763</v>
       </c>
       <c r="F31">
-        <v>-0.18331</v>
+        <v>-0.20278</v>
       </c>
       <c r="G31">
-        <v>-0.18295</v>
+        <v>-0.16744</v>
       </c>
     </row>
   </sheetData>
